--- a/src/Invictus.Api/ALCANTARA - FINC_ENF01.xlsx
+++ b/src/Invictus.Api/ALCANTARA - FINC_ENF01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="36">
   <si>
     <t>ANA CLAUDIA CAMPOS DE ARAUJO CONCEIÇÃO</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>THAMIRYS CONCEIÇÃO DE ABREU</t>
   </si>
+  <si>
+    <t>MENOR!!!!</t>
+  </si>
 </sst>
 </file>
 
@@ -150,12 +153,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,12 +185,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="B563" sqref="B563"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,1624 +7717,1624 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5">
         <v>60</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="6">
         <v>44457</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="6">
         <v>44844</v>
       </c>
-      <c r="F234" s="3">
-        <v>195</v>
-      </c>
-      <c r="H234" s="3">
-        <v>195</v>
-      </c>
-      <c r="J234" t="s">
-        <v>2</v>
-      </c>
-      <c r="M234" t="s">
-        <v>4</v>
-      </c>
-      <c r="N234" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="F234" s="7">
+        <v>195</v>
+      </c>
+      <c r="H234" s="7">
+        <v>195</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M234" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N234" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5">
         <v>60</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="6">
         <v>44457</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="6">
         <v>44875</v>
       </c>
-      <c r="F235" s="3">
-        <v>195</v>
-      </c>
-      <c r="H235" s="3">
-        <v>195</v>
-      </c>
-      <c r="J235" t="s">
-        <v>2</v>
-      </c>
-      <c r="M235" t="s">
-        <v>4</v>
-      </c>
-      <c r="N235" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="F235" s="7">
+        <v>195</v>
+      </c>
+      <c r="H235" s="7">
+        <v>195</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M235" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N235" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5">
         <v>60</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="6">
         <v>44457</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="6">
         <v>44905</v>
       </c>
-      <c r="F236" s="3">
-        <v>195</v>
-      </c>
-      <c r="H236" s="3">
-        <v>195</v>
-      </c>
-      <c r="J236" t="s">
-        <v>2</v>
-      </c>
-      <c r="M236" t="s">
-        <v>4</v>
-      </c>
-      <c r="N236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="F236" s="7">
+        <v>195</v>
+      </c>
+      <c r="H236" s="7">
+        <v>195</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N236" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="5">
         <v>60</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="6">
         <v>44457</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="6">
         <v>44936</v>
       </c>
-      <c r="F237" s="3">
-        <v>195</v>
-      </c>
-      <c r="H237" s="3">
-        <v>195</v>
-      </c>
-      <c r="J237" t="s">
-        <v>2</v>
-      </c>
-      <c r="M237" t="s">
-        <v>4</v>
-      </c>
-      <c r="N237" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="F237" s="7">
+        <v>195</v>
+      </c>
+      <c r="H237" s="7">
+        <v>195</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M237" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N237" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
         <v>60</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="6">
         <v>44457</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="6">
         <v>44967</v>
       </c>
-      <c r="F238" s="3">
-        <v>195</v>
-      </c>
-      <c r="H238" s="3">
-        <v>195</v>
-      </c>
-      <c r="J238" t="s">
-        <v>2</v>
-      </c>
-      <c r="M238" t="s">
-        <v>4</v>
-      </c>
-      <c r="N238" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="F238" s="7">
+        <v>195</v>
+      </c>
+      <c r="H238" s="7">
+        <v>195</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M238" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N238" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="5">
         <v>60</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="6">
         <v>44457</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="6">
         <v>44995</v>
       </c>
-      <c r="F239" s="3">
-        <v>195</v>
-      </c>
-      <c r="H239" s="3">
-        <v>195</v>
-      </c>
-      <c r="J239" t="s">
-        <v>2</v>
-      </c>
-      <c r="M239" t="s">
-        <v>4</v>
-      </c>
-      <c r="N239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="F239" s="7">
+        <v>195</v>
+      </c>
+      <c r="H239" s="7">
+        <v>195</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M239" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N239" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="5">
         <v>60</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="6">
         <v>44457</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="6">
         <v>45026</v>
       </c>
-      <c r="F240" s="3">
-        <v>195</v>
-      </c>
-      <c r="H240" s="3">
-        <v>195</v>
-      </c>
-      <c r="J240" t="s">
-        <v>2</v>
-      </c>
-      <c r="M240" t="s">
-        <v>4</v>
-      </c>
-      <c r="N240" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="F240" s="7">
+        <v>195</v>
+      </c>
+      <c r="H240" s="7">
+        <v>195</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M240" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N240" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5">
         <v>60</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="6">
         <v>44457</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="6">
         <v>45056</v>
       </c>
-      <c r="F241" s="3">
-        <v>195</v>
-      </c>
-      <c r="H241" s="3">
-        <v>195</v>
-      </c>
-      <c r="J241" t="s">
-        <v>2</v>
-      </c>
-      <c r="M241" t="s">
-        <v>4</v>
-      </c>
-      <c r="N241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="F241" s="7">
+        <v>195</v>
+      </c>
+      <c r="H241" s="7">
+        <v>195</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M241" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N241" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="5">
         <v>60</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="6">
         <v>44457</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="6">
         <v>45087</v>
       </c>
-      <c r="F242" s="3">
-        <v>195</v>
-      </c>
-      <c r="H242" s="3">
-        <v>195</v>
-      </c>
-      <c r="J242" t="s">
-        <v>2</v>
-      </c>
-      <c r="M242" t="s">
-        <v>4</v>
-      </c>
-      <c r="N242" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="F242" s="7">
+        <v>195</v>
+      </c>
+      <c r="H242" s="7">
+        <v>195</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N242" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5">
         <v>51</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="6">
         <v>44447</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="6">
         <v>44449</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="6">
         <v>44447</v>
       </c>
-      <c r="F243" s="3">
-        <v>195</v>
-      </c>
-      <c r="G243" s="3">
+      <c r="F243" s="7">
+        <v>195</v>
+      </c>
+      <c r="G243" s="7">
         <v>150</v>
       </c>
-      <c r="H243" s="3">
-        <v>195</v>
-      </c>
-      <c r="I243" t="s">
+      <c r="H243" s="7">
+        <v>195</v>
+      </c>
+      <c r="I243" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J243" t="s">
-        <v>2</v>
-      </c>
-      <c r="K243" t="s">
+      <c r="J243" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K243" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M243" t="s">
-        <v>4</v>
-      </c>
-      <c r="N243" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="M243" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N243" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5">
         <v>51</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="6">
         <v>44447</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="6">
         <v>44540</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="6">
         <v>44532</v>
       </c>
-      <c r="F244" s="3">
-        <v>195</v>
-      </c>
-      <c r="G244" s="3">
+      <c r="F244" s="7">
+        <v>195</v>
+      </c>
+      <c r="G244" s="7">
         <v>150</v>
       </c>
-      <c r="H244" s="3">
-        <v>195</v>
-      </c>
-      <c r="I244" t="s">
+      <c r="H244" s="7">
+        <v>195</v>
+      </c>
+      <c r="I244" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J244" t="s">
-        <v>2</v>
-      </c>
-      <c r="K244" t="s">
+      <c r="J244" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K244" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M244" t="s">
-        <v>4</v>
-      </c>
-      <c r="N244" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="M244" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N244" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5">
         <v>51</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="6">
         <v>44447</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="6">
         <v>44571</v>
       </c>
-      <c r="F245" s="3">
-        <v>195</v>
-      </c>
-      <c r="H245" s="3">
-        <v>195</v>
-      </c>
-      <c r="J245" t="s">
-        <v>2</v>
-      </c>
-      <c r="M245" t="s">
-        <v>4</v>
-      </c>
-      <c r="N245" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="F245" s="7">
+        <v>195</v>
+      </c>
+      <c r="H245" s="7">
+        <v>195</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M245" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N245" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5">
         <v>51</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="6">
         <v>44447</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="6">
         <v>44602</v>
       </c>
-      <c r="F246" s="3">
-        <v>195</v>
-      </c>
-      <c r="H246" s="3">
-        <v>195</v>
-      </c>
-      <c r="J246" t="s">
-        <v>2</v>
-      </c>
-      <c r="M246" t="s">
-        <v>4</v>
-      </c>
-      <c r="N246" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="F246" s="7">
+        <v>195</v>
+      </c>
+      <c r="H246" s="7">
+        <v>195</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N246" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
         <v>51</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="6">
         <v>44447</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="6">
         <v>44630</v>
       </c>
-      <c r="F247" s="3">
-        <v>195</v>
-      </c>
-      <c r="H247" s="3">
-        <v>195</v>
-      </c>
-      <c r="J247" t="s">
-        <v>2</v>
-      </c>
-      <c r="M247" t="s">
-        <v>4</v>
-      </c>
-      <c r="N247" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="F247" s="7">
+        <v>195</v>
+      </c>
+      <c r="H247" s="7">
+        <v>195</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M247" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N247" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
         <v>51</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="6">
         <v>44447</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="6">
         <v>44661</v>
       </c>
-      <c r="F248" s="3">
-        <v>195</v>
-      </c>
-      <c r="H248" s="3">
-        <v>195</v>
-      </c>
-      <c r="J248" t="s">
-        <v>2</v>
-      </c>
-      <c r="M248" t="s">
-        <v>4</v>
-      </c>
-      <c r="N248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="F248" s="7">
+        <v>195</v>
+      </c>
+      <c r="H248" s="7">
+        <v>195</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N248" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="5">
         <v>51</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="6">
         <v>44447</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="6">
         <v>44691</v>
       </c>
-      <c r="F249" s="3">
-        <v>195</v>
-      </c>
-      <c r="H249" s="3">
-        <v>195</v>
-      </c>
-      <c r="J249" t="s">
-        <v>2</v>
-      </c>
-      <c r="M249" t="s">
-        <v>4</v>
-      </c>
-      <c r="N249" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="F249" s="7">
+        <v>195</v>
+      </c>
+      <c r="H249" s="7">
+        <v>195</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M249" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N249" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
         <v>51</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="6">
         <v>44447</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="6">
         <v>44722</v>
       </c>
-      <c r="F250" s="3">
-        <v>195</v>
-      </c>
-      <c r="H250" s="3">
-        <v>195</v>
-      </c>
-      <c r="J250" t="s">
-        <v>2</v>
-      </c>
-      <c r="M250" t="s">
-        <v>4</v>
-      </c>
-      <c r="N250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="F250" s="7">
+        <v>195</v>
+      </c>
+      <c r="H250" s="7">
+        <v>195</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N250" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="5">
         <v>51</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="6">
         <v>44447</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="6">
         <v>44752</v>
       </c>
-      <c r="F251" s="3">
-        <v>195</v>
-      </c>
-      <c r="H251" s="3">
-        <v>195</v>
-      </c>
-      <c r="J251" t="s">
-        <v>2</v>
-      </c>
-      <c r="M251" t="s">
-        <v>4</v>
-      </c>
-      <c r="N251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="F251" s="7">
+        <v>195</v>
+      </c>
+      <c r="H251" s="7">
+        <v>195</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M251" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N251" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="5">
         <v>51</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="6">
         <v>44447</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="6">
         <v>44783</v>
       </c>
-      <c r="F252" s="3">
-        <v>195</v>
-      </c>
-      <c r="H252" s="3">
-        <v>195</v>
-      </c>
-      <c r="J252" t="s">
-        <v>2</v>
-      </c>
-      <c r="M252" t="s">
-        <v>4</v>
-      </c>
-      <c r="N252" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="F252" s="7">
+        <v>195</v>
+      </c>
+      <c r="H252" s="7">
+        <v>195</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N252" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5">
         <v>51</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="6">
         <v>44447</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="6">
         <v>44814</v>
       </c>
-      <c r="F253" s="3">
-        <v>195</v>
-      </c>
-      <c r="H253" s="3">
-        <v>195</v>
-      </c>
-      <c r="J253" t="s">
-        <v>2</v>
-      </c>
-      <c r="M253" t="s">
-        <v>4</v>
-      </c>
-      <c r="N253" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="F253" s="7">
+        <v>195</v>
+      </c>
+      <c r="H253" s="7">
+        <v>195</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M253" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N253" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="5">
         <v>51</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="6">
         <v>44447</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="6">
         <v>44844</v>
       </c>
-      <c r="F254" s="3">
-        <v>195</v>
-      </c>
-      <c r="H254" s="3">
-        <v>195</v>
-      </c>
-      <c r="J254" t="s">
-        <v>2</v>
-      </c>
-      <c r="M254" t="s">
-        <v>4</v>
-      </c>
-      <c r="N254" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="F254" s="7">
+        <v>195</v>
+      </c>
+      <c r="H254" s="7">
+        <v>195</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N254" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5">
         <v>51</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="6">
         <v>44447</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="6">
         <v>44875</v>
       </c>
-      <c r="F255" s="3">
-        <v>195</v>
-      </c>
-      <c r="H255" s="3">
-        <v>195</v>
-      </c>
-      <c r="J255" t="s">
-        <v>2</v>
-      </c>
-      <c r="M255" t="s">
-        <v>4</v>
-      </c>
-      <c r="N255" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="F255" s="7">
+        <v>195</v>
+      </c>
+      <c r="H255" s="7">
+        <v>195</v>
+      </c>
+      <c r="J255" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M255" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N255" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5">
         <v>51</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="6">
         <v>44447</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="6">
         <v>44905</v>
       </c>
-      <c r="F256" s="3">
-        <v>195</v>
-      </c>
-      <c r="H256" s="3">
-        <v>195</v>
-      </c>
-      <c r="J256" t="s">
-        <v>2</v>
-      </c>
-      <c r="M256" t="s">
-        <v>4</v>
-      </c>
-      <c r="N256" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="F256" s="7">
+        <v>195</v>
+      </c>
+      <c r="H256" s="7">
+        <v>195</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N256" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="5">
         <v>51</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="6">
         <v>44447</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="6">
         <v>44936</v>
       </c>
-      <c r="F257" s="3">
-        <v>195</v>
-      </c>
-      <c r="H257" s="3">
-        <v>195</v>
-      </c>
-      <c r="J257" t="s">
-        <v>2</v>
-      </c>
-      <c r="M257" t="s">
-        <v>4</v>
-      </c>
-      <c r="N257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="F257" s="7">
+        <v>195</v>
+      </c>
+      <c r="H257" s="7">
+        <v>195</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N257" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="5">
         <v>51</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="6">
         <v>44447</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="6">
         <v>44967</v>
       </c>
-      <c r="F258" s="3">
-        <v>195</v>
-      </c>
-      <c r="H258" s="3">
-        <v>195</v>
-      </c>
-      <c r="J258" t="s">
-        <v>2</v>
-      </c>
-      <c r="M258" t="s">
-        <v>4</v>
-      </c>
-      <c r="N258" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="F258" s="7">
+        <v>195</v>
+      </c>
+      <c r="H258" s="7">
+        <v>195</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N258" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5">
         <v>51</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="6">
         <v>44447</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="6">
         <v>44995</v>
       </c>
-      <c r="F259" s="3">
-        <v>195</v>
-      </c>
-      <c r="H259" s="3">
-        <v>195</v>
-      </c>
-      <c r="J259" t="s">
-        <v>2</v>
-      </c>
-      <c r="M259" t="s">
-        <v>4</v>
-      </c>
-      <c r="N259" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="F259" s="7">
+        <v>195</v>
+      </c>
+      <c r="H259" s="7">
+        <v>195</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N259" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="5">
         <v>51</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="6">
         <v>44447</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="6">
         <v>45026</v>
       </c>
-      <c r="F260" s="3">
-        <v>195</v>
-      </c>
-      <c r="H260" s="3">
-        <v>195</v>
-      </c>
-      <c r="J260" t="s">
-        <v>2</v>
-      </c>
-      <c r="M260" t="s">
-        <v>4</v>
-      </c>
-      <c r="N260" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="F260" s="7">
+        <v>195</v>
+      </c>
+      <c r="H260" s="7">
+        <v>195</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N260" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="5">
         <v>51</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="6">
         <v>44447</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="6">
         <v>45056</v>
       </c>
-      <c r="F261" s="3">
-        <v>195</v>
-      </c>
-      <c r="H261" s="3">
-        <v>195</v>
-      </c>
-      <c r="J261" t="s">
-        <v>2</v>
-      </c>
-      <c r="M261" t="s">
-        <v>4</v>
-      </c>
-      <c r="N261" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="F261" s="7">
+        <v>195</v>
+      </c>
+      <c r="H261" s="7">
+        <v>195</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N261" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5">
         <v>51</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="6">
         <v>44447</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="6">
         <v>45087</v>
       </c>
-      <c r="F262" s="3">
-        <v>195</v>
-      </c>
-      <c r="H262" s="3">
-        <v>195</v>
-      </c>
-      <c r="J262" t="s">
-        <v>2</v>
-      </c>
-      <c r="M262" t="s">
-        <v>4</v>
-      </c>
-      <c r="N262" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="F262" s="7">
+        <v>195</v>
+      </c>
+      <c r="H262" s="7">
+        <v>195</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N262" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5">
         <v>51</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="6">
         <v>44447</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="6">
         <v>44479</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="6">
         <v>44508</v>
       </c>
-      <c r="F263" s="3">
+      <c r="F263" s="7">
         <v>150</v>
       </c>
-      <c r="G263" s="3">
+      <c r="G263" s="7">
         <v>150</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I263" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J263" t="s">
-        <v>2</v>
-      </c>
-      <c r="K263" t="s">
+      <c r="J263" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K263" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M263" t="s">
-        <v>4</v>
-      </c>
-      <c r="N263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="M263" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N263" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="5">
         <v>51</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="6">
         <v>44447</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="6">
         <v>44510</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="6">
         <v>44533</v>
       </c>
-      <c r="F264" s="3">
+      <c r="F264" s="7">
         <v>150</v>
       </c>
-      <c r="G264" s="3">
+      <c r="G264" s="7">
         <v>150</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J264" t="s">
-        <v>2</v>
-      </c>
-      <c r="K264" t="s">
+      <c r="J264" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K264" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M264" t="s">
-        <v>4</v>
-      </c>
-      <c r="N264" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="M264" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N264" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="5">
         <v>52</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="6">
         <v>44448</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="6">
         <v>44479</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265" s="6">
         <v>44480</v>
       </c>
-      <c r="F265" s="3">
-        <v>195</v>
-      </c>
-      <c r="G265" s="3">
+      <c r="F265" s="7">
+        <v>195</v>
+      </c>
+      <c r="G265" s="7">
         <v>150</v>
       </c>
-      <c r="H265" s="3">
-        <v>195</v>
-      </c>
-      <c r="I265" t="s">
+      <c r="H265" s="7">
+        <v>195</v>
+      </c>
+      <c r="I265" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J265" t="s">
-        <v>2</v>
-      </c>
-      <c r="K265" t="s">
+      <c r="J265" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K265" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M265" t="s">
-        <v>4</v>
-      </c>
-      <c r="N265" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="M265" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N265" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
         <v>52</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="6">
         <v>44448</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="6">
         <v>44540</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266" s="6">
         <v>44540</v>
       </c>
-      <c r="F266" s="3">
-        <v>195</v>
-      </c>
-      <c r="G266" s="3">
+      <c r="F266" s="7">
+        <v>195</v>
+      </c>
+      <c r="G266" s="7">
         <v>150</v>
       </c>
-      <c r="H266" s="3">
-        <v>195</v>
-      </c>
-      <c r="I266" t="s">
+      <c r="H266" s="7">
+        <v>195</v>
+      </c>
+      <c r="I266" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J266" t="s">
-        <v>2</v>
-      </c>
-      <c r="K266" t="s">
+      <c r="J266" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K266" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M266" t="s">
-        <v>4</v>
-      </c>
-      <c r="N266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="M266" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N266" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5">
         <v>52</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="6">
         <v>44448</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="6">
         <v>44449</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="6">
         <v>44449</v>
       </c>
-      <c r="F267" s="3">
+      <c r="F267" s="7">
         <v>150</v>
       </c>
-      <c r="G267" s="3">
+      <c r="G267" s="7">
         <v>150</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J267" t="s">
-        <v>2</v>
-      </c>
-      <c r="K267" t="s">
+      <c r="J267" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K267" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M267" t="s">
-        <v>4</v>
-      </c>
-      <c r="N267" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="M267" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N267" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="5">
         <v>52</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="6">
         <v>44448</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="6">
         <v>44571</v>
       </c>
-      <c r="F268" s="3">
-        <v>195</v>
-      </c>
-      <c r="H268" s="3">
-        <v>195</v>
-      </c>
-      <c r="J268" t="s">
-        <v>2</v>
-      </c>
-      <c r="M268" t="s">
-        <v>4</v>
-      </c>
-      <c r="N268" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="F268" s="7">
+        <v>195</v>
+      </c>
+      <c r="H268" s="7">
+        <v>195</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N268" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="5">
         <v>52</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="6">
         <v>44448</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="6">
         <v>44602</v>
       </c>
-      <c r="F269" s="3">
-        <v>195</v>
-      </c>
-      <c r="H269" s="3">
-        <v>195</v>
-      </c>
-      <c r="J269" t="s">
-        <v>2</v>
-      </c>
-      <c r="M269" t="s">
-        <v>4</v>
-      </c>
-      <c r="N269" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="F269" s="7">
+        <v>195</v>
+      </c>
+      <c r="H269" s="7">
+        <v>195</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M269" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N269" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="5">
         <v>52</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="6">
         <v>44448</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="6">
         <v>44630</v>
       </c>
-      <c r="F270" s="3">
-        <v>195</v>
-      </c>
-      <c r="H270" s="3">
-        <v>195</v>
-      </c>
-      <c r="J270" t="s">
-        <v>2</v>
-      </c>
-      <c r="M270" t="s">
-        <v>4</v>
-      </c>
-      <c r="N270" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="F270" s="7">
+        <v>195</v>
+      </c>
+      <c r="H270" s="7">
+        <v>195</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N270" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="5">
         <v>52</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="6">
         <v>44448</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="6">
         <v>44661</v>
       </c>
-      <c r="F271" s="3">
-        <v>195</v>
-      </c>
-      <c r="H271" s="3">
-        <v>195</v>
-      </c>
-      <c r="J271" t="s">
-        <v>2</v>
-      </c>
-      <c r="M271" t="s">
-        <v>4</v>
-      </c>
-      <c r="N271" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="F271" s="7">
+        <v>195</v>
+      </c>
+      <c r="H271" s="7">
+        <v>195</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M271" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N271" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="5">
         <v>52</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="6">
         <v>44448</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="6">
         <v>44691</v>
       </c>
-      <c r="F272" s="3">
-        <v>195</v>
-      </c>
-      <c r="H272" s="3">
-        <v>195</v>
-      </c>
-      <c r="J272" t="s">
-        <v>2</v>
-      </c>
-      <c r="M272" t="s">
-        <v>4</v>
-      </c>
-      <c r="N272" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="F272" s="7">
+        <v>195</v>
+      </c>
+      <c r="H272" s="7">
+        <v>195</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M272" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N272" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5">
         <v>52</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="6">
         <v>44448</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="6">
         <v>44722</v>
       </c>
-      <c r="F273" s="3">
-        <v>195</v>
-      </c>
-      <c r="H273" s="3">
-        <v>195</v>
-      </c>
-      <c r="J273" t="s">
-        <v>2</v>
-      </c>
-      <c r="M273" t="s">
-        <v>4</v>
-      </c>
-      <c r="N273" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="F273" s="7">
+        <v>195</v>
+      </c>
+      <c r="H273" s="7">
+        <v>195</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M273" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N273" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="5">
         <v>52</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="6">
         <v>44448</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="6">
         <v>44752</v>
       </c>
-      <c r="F274" s="3">
-        <v>195</v>
-      </c>
-      <c r="H274" s="3">
-        <v>195</v>
-      </c>
-      <c r="J274" t="s">
-        <v>2</v>
-      </c>
-      <c r="M274" t="s">
-        <v>4</v>
-      </c>
-      <c r="N274" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="F274" s="7">
+        <v>195</v>
+      </c>
+      <c r="H274" s="7">
+        <v>195</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N274" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="5">
         <v>52</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="6">
         <v>44448</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="6">
         <v>44783</v>
       </c>
-      <c r="F275" s="3">
-        <v>195</v>
-      </c>
-      <c r="H275" s="3">
-        <v>195</v>
-      </c>
-      <c r="J275" t="s">
-        <v>2</v>
-      </c>
-      <c r="M275" t="s">
-        <v>4</v>
-      </c>
-      <c r="N275" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="F275" s="7">
+        <v>195</v>
+      </c>
+      <c r="H275" s="7">
+        <v>195</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M275" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N275" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
         <v>52</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="6">
         <v>44448</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="6">
         <v>44814</v>
       </c>
-      <c r="F276" s="3">
-        <v>195</v>
-      </c>
-      <c r="H276" s="3">
-        <v>195</v>
-      </c>
-      <c r="J276" t="s">
-        <v>2</v>
-      </c>
-      <c r="M276" t="s">
-        <v>4</v>
-      </c>
-      <c r="N276" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="F276" s="7">
+        <v>195</v>
+      </c>
+      <c r="H276" s="7">
+        <v>195</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M276" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N276" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
         <v>52</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277" s="6">
         <v>44448</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="6">
         <v>44844</v>
       </c>
-      <c r="F277" s="3">
-        <v>195</v>
-      </c>
-      <c r="H277" s="3">
-        <v>195</v>
-      </c>
-      <c r="J277" t="s">
-        <v>2</v>
-      </c>
-      <c r="M277" t="s">
-        <v>4</v>
-      </c>
-      <c r="N277" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="F277" s="7">
+        <v>195</v>
+      </c>
+      <c r="H277" s="7">
+        <v>195</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M277" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N277" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
         <v>52</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278" s="6">
         <v>44448</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="6">
         <v>44875</v>
       </c>
-      <c r="F278" s="3">
-        <v>195</v>
-      </c>
-      <c r="H278" s="3">
-        <v>195</v>
-      </c>
-      <c r="J278" t="s">
-        <v>2</v>
-      </c>
-      <c r="M278" t="s">
-        <v>4</v>
-      </c>
-      <c r="N278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="F278" s="7">
+        <v>195</v>
+      </c>
+      <c r="H278" s="7">
+        <v>195</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M278" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N278" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
         <v>52</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279" s="6">
         <v>44448</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="6">
         <v>44905</v>
       </c>
-      <c r="F279" s="3">
-        <v>195</v>
-      </c>
-      <c r="H279" s="3">
-        <v>195</v>
-      </c>
-      <c r="J279" t="s">
-        <v>2</v>
-      </c>
-      <c r="M279" t="s">
-        <v>4</v>
-      </c>
-      <c r="N279" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="F279" s="7">
+        <v>195</v>
+      </c>
+      <c r="H279" s="7">
+        <v>195</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M279" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N279" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
         <v>52</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280" s="6">
         <v>44448</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="6">
         <v>44936</v>
       </c>
-      <c r="F280" s="3">
-        <v>195</v>
-      </c>
-      <c r="H280" s="3">
-        <v>195</v>
-      </c>
-      <c r="J280" t="s">
-        <v>2</v>
-      </c>
-      <c r="M280" t="s">
-        <v>4</v>
-      </c>
-      <c r="N280" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="F280" s="7">
+        <v>195</v>
+      </c>
+      <c r="H280" s="7">
+        <v>195</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N280" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
         <v>52</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281" s="6">
         <v>44448</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="6">
         <v>44967</v>
       </c>
-      <c r="F281" s="3">
-        <v>195</v>
-      </c>
-      <c r="H281" s="3">
-        <v>195</v>
-      </c>
-      <c r="J281" t="s">
-        <v>2</v>
-      </c>
-      <c r="M281" t="s">
-        <v>4</v>
-      </c>
-      <c r="N281" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="F281" s="7">
+        <v>195</v>
+      </c>
+      <c r="H281" s="7">
+        <v>195</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M281" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N281" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
         <v>52</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282" s="6">
         <v>44448</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="6">
         <v>44995</v>
       </c>
-      <c r="F282" s="3">
-        <v>195</v>
-      </c>
-      <c r="H282" s="3">
-        <v>195</v>
-      </c>
-      <c r="J282" t="s">
-        <v>2</v>
-      </c>
-      <c r="M282" t="s">
-        <v>4</v>
-      </c>
-      <c r="N282" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="F282" s="7">
+        <v>195</v>
+      </c>
+      <c r="H282" s="7">
+        <v>195</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M282" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N282" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5">
         <v>52</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283" s="6">
         <v>44448</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="6">
         <v>45026</v>
       </c>
-      <c r="F283" s="3">
-        <v>195</v>
-      </c>
-      <c r="H283" s="3">
-        <v>195</v>
-      </c>
-      <c r="J283" t="s">
-        <v>2</v>
-      </c>
-      <c r="M283" t="s">
-        <v>4</v>
-      </c>
-      <c r="N283" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="F283" s="7">
+        <v>195</v>
+      </c>
+      <c r="H283" s="7">
+        <v>195</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M283" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N283" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="5">
         <v>52</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284" s="6">
         <v>44448</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="6">
         <v>45056</v>
       </c>
-      <c r="F284" s="3">
-        <v>195</v>
-      </c>
-      <c r="H284" s="3">
-        <v>195</v>
-      </c>
-      <c r="J284" t="s">
-        <v>2</v>
-      </c>
-      <c r="M284" t="s">
-        <v>4</v>
-      </c>
-      <c r="N284" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="F284" s="7">
+        <v>195</v>
+      </c>
+      <c r="H284" s="7">
+        <v>195</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M284" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N284" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="5">
         <v>52</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285" s="6">
         <v>44448</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="6">
         <v>45087</v>
       </c>
-      <c r="F285" s="3">
-        <v>195</v>
-      </c>
-      <c r="H285" s="3">
-        <v>195</v>
-      </c>
-      <c r="J285" t="s">
-        <v>2</v>
-      </c>
-      <c r="M285" t="s">
-        <v>4</v>
-      </c>
-      <c r="N285" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="F285" s="7">
+        <v>195</v>
+      </c>
+      <c r="H285" s="7">
+        <v>195</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M285" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N285" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="5">
         <v>52</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286" s="6">
         <v>44448</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="6">
         <v>44510</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E286" s="6">
         <v>44509</v>
       </c>
-      <c r="F286" s="3">
+      <c r="F286" s="7">
         <v>150</v>
       </c>
-      <c r="G286" s="3">
+      <c r="G286" s="7">
         <v>150</v>
       </c>
-      <c r="I286" t="s">
+      <c r="I286" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J286" t="s">
-        <v>2</v>
-      </c>
-      <c r="K286" t="s">
+      <c r="J286" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K286" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M286" t="s">
-        <v>4</v>
-      </c>
-      <c r="N286" t="s">
+      <c r="M286" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N286" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9994,671 +10015,671 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" s="9">
+        <v>44476</v>
+      </c>
+      <c r="D309" s="9">
+        <v>44540</v>
+      </c>
+      <c r="E309" s="9">
+        <v>44540</v>
+      </c>
+      <c r="F309" s="10">
+        <v>195</v>
+      </c>
+      <c r="G309" s="10">
+        <v>150</v>
+      </c>
+      <c r="H309" s="10">
+        <v>195</v>
+      </c>
+      <c r="I309" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K309" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M309" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N309" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="8">
         <v>80</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B310" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C310" s="9">
         <v>44476</v>
       </c>
-      <c r="D309" s="2">
-        <v>44540</v>
-      </c>
-      <c r="E309" s="2">
-        <v>44540</v>
-      </c>
-      <c r="F309" s="3">
-        <v>195</v>
-      </c>
-      <c r="G309" s="3">
+      <c r="D310" s="9">
+        <v>44479</v>
+      </c>
+      <c r="E310" s="9">
+        <v>44477</v>
+      </c>
+      <c r="F310" s="10">
         <v>150</v>
       </c>
-      <c r="H309" s="3">
-        <v>195</v>
-      </c>
-      <c r="I309" t="s">
+      <c r="G310" s="10">
+        <v>150</v>
+      </c>
+      <c r="I310" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J309" t="s">
-        <v>2</v>
-      </c>
-      <c r="K309" t="s">
-        <v>3</v>
-      </c>
-      <c r="M309" t="s">
-        <v>4</v>
-      </c>
-      <c r="N309" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="J310" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K310" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M310" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N310" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="8">
         <v>80</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C311" s="9">
         <v>44476</v>
       </c>
-      <c r="D310" s="2">
-        <v>44479</v>
-      </c>
-      <c r="E310" s="2">
-        <v>44477</v>
-      </c>
-      <c r="F310" s="3">
+      <c r="D311" s="9">
+        <v>44510</v>
+      </c>
+      <c r="E311" s="9">
+        <v>44509</v>
+      </c>
+      <c r="F311" s="10">
         <v>150</v>
       </c>
-      <c r="G310" s="3">
+      <c r="G311" s="10">
         <v>150</v>
       </c>
-      <c r="I310" t="s">
+      <c r="I311" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J310" t="s">
-        <v>2</v>
-      </c>
-      <c r="K310" t="s">
+      <c r="J311" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K311" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M310" t="s">
-        <v>4</v>
-      </c>
-      <c r="N310" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="M311" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N311" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="8">
         <v>80</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C312" s="9">
         <v>44476</v>
       </c>
-      <c r="D311" s="2">
-        <v>44510</v>
-      </c>
-      <c r="E311" s="2">
-        <v>44509</v>
-      </c>
-      <c r="F311" s="3">
-        <v>150</v>
-      </c>
-      <c r="G311" s="3">
-        <v>150</v>
-      </c>
-      <c r="I311" t="s">
-        <v>1</v>
-      </c>
-      <c r="J311" t="s">
-        <v>2</v>
-      </c>
-      <c r="K311" t="s">
-        <v>6</v>
-      </c>
-      <c r="M311" t="s">
-        <v>4</v>
-      </c>
-      <c r="N311" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="D312" s="9">
+        <v>44571</v>
+      </c>
+      <c r="F312" s="10">
+        <v>195</v>
+      </c>
+      <c r="H312" s="10">
+        <v>195</v>
+      </c>
+      <c r="J312" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M312" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N312" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="8">
         <v>80</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C313" s="9">
         <v>44476</v>
       </c>
-      <c r="D312" s="2">
-        <v>44571</v>
-      </c>
-      <c r="F312" s="3">
-        <v>195</v>
-      </c>
-      <c r="H312" s="3">
-        <v>195</v>
-      </c>
-      <c r="J312" t="s">
-        <v>2</v>
-      </c>
-      <c r="M312" t="s">
-        <v>4</v>
-      </c>
-      <c r="N312" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="D313" s="9">
+        <v>44602</v>
+      </c>
+      <c r="F313" s="10">
+        <v>195</v>
+      </c>
+      <c r="H313" s="10">
+        <v>195</v>
+      </c>
+      <c r="J313" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M313" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N313" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="8">
         <v>80</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C314" s="9">
         <v>44476</v>
       </c>
-      <c r="D313" s="2">
-        <v>44602</v>
-      </c>
-      <c r="F313" s="3">
-        <v>195</v>
-      </c>
-      <c r="H313" s="3">
-        <v>195</v>
-      </c>
-      <c r="J313" t="s">
-        <v>2</v>
-      </c>
-      <c r="M313" t="s">
-        <v>4</v>
-      </c>
-      <c r="N313" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="D314" s="9">
+        <v>44630</v>
+      </c>
+      <c r="F314" s="10">
+        <v>195</v>
+      </c>
+      <c r="H314" s="10">
+        <v>195</v>
+      </c>
+      <c r="J314" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M314" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N314" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="8">
         <v>80</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C315" s="9">
         <v>44476</v>
       </c>
-      <c r="D314" s="2">
-        <v>44630</v>
-      </c>
-      <c r="F314" s="3">
-        <v>195</v>
-      </c>
-      <c r="H314" s="3">
-        <v>195</v>
-      </c>
-      <c r="J314" t="s">
-        <v>2</v>
-      </c>
-      <c r="M314" t="s">
-        <v>4</v>
-      </c>
-      <c r="N314" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="D315" s="9">
+        <v>44661</v>
+      </c>
+      <c r="F315" s="10">
+        <v>195</v>
+      </c>
+      <c r="H315" s="10">
+        <v>195</v>
+      </c>
+      <c r="J315" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M315" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N315" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="8">
         <v>80</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C316" s="9">
         <v>44476</v>
       </c>
-      <c r="D315" s="2">
-        <v>44661</v>
-      </c>
-      <c r="F315" s="3">
-        <v>195</v>
-      </c>
-      <c r="H315" s="3">
-        <v>195</v>
-      </c>
-      <c r="J315" t="s">
-        <v>2</v>
-      </c>
-      <c r="M315" t="s">
-        <v>4</v>
-      </c>
-      <c r="N315" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="D316" s="9">
+        <v>44691</v>
+      </c>
+      <c r="F316" s="10">
+        <v>195</v>
+      </c>
+      <c r="H316" s="10">
+        <v>195</v>
+      </c>
+      <c r="J316" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M316" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N316" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="8">
         <v>80</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C317" s="9">
         <v>44476</v>
       </c>
-      <c r="D316" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F316" s="3">
-        <v>195</v>
-      </c>
-      <c r="H316" s="3">
-        <v>195</v>
-      </c>
-      <c r="J316" t="s">
-        <v>2</v>
-      </c>
-      <c r="M316" t="s">
-        <v>4</v>
-      </c>
-      <c r="N316" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="D317" s="9">
+        <v>44722</v>
+      </c>
+      <c r="F317" s="10">
+        <v>195</v>
+      </c>
+      <c r="H317" s="10">
+        <v>195</v>
+      </c>
+      <c r="J317" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M317" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N317" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="8">
         <v>80</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C318" s="9">
         <v>44476</v>
       </c>
-      <c r="D317" s="2">
-        <v>44722</v>
-      </c>
-      <c r="F317" s="3">
-        <v>195</v>
-      </c>
-      <c r="H317" s="3">
-        <v>195</v>
-      </c>
-      <c r="J317" t="s">
-        <v>2</v>
-      </c>
-      <c r="M317" t="s">
-        <v>4</v>
-      </c>
-      <c r="N317" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="D318" s="9">
+        <v>44752</v>
+      </c>
+      <c r="F318" s="10">
+        <v>195</v>
+      </c>
+      <c r="H318" s="10">
+        <v>195</v>
+      </c>
+      <c r="J318" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M318" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N318" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="8">
         <v>80</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C319" s="9">
         <v>44476</v>
       </c>
-      <c r="D318" s="2">
-        <v>44752</v>
-      </c>
-      <c r="F318" s="3">
-        <v>195</v>
-      </c>
-      <c r="H318" s="3">
-        <v>195</v>
-      </c>
-      <c r="J318" t="s">
-        <v>2</v>
-      </c>
-      <c r="M318" t="s">
-        <v>4</v>
-      </c>
-      <c r="N318" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="D319" s="9">
+        <v>44783</v>
+      </c>
+      <c r="F319" s="10">
+        <v>195</v>
+      </c>
+      <c r="H319" s="10">
+        <v>195</v>
+      </c>
+      <c r="J319" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M319" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N319" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="8">
         <v>80</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C320" s="9">
         <v>44476</v>
       </c>
-      <c r="D319" s="2">
-        <v>44783</v>
-      </c>
-      <c r="F319" s="3">
-        <v>195</v>
-      </c>
-      <c r="H319" s="3">
-        <v>195</v>
-      </c>
-      <c r="J319" t="s">
-        <v>2</v>
-      </c>
-      <c r="M319" t="s">
-        <v>4</v>
-      </c>
-      <c r="N319" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="D320" s="9">
+        <v>44814</v>
+      </c>
+      <c r="F320" s="10">
+        <v>195</v>
+      </c>
+      <c r="H320" s="10">
+        <v>195</v>
+      </c>
+      <c r="J320" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M320" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N320" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="8">
         <v>80</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C321" s="9">
         <v>44476</v>
       </c>
-      <c r="D320" s="2">
-        <v>44814</v>
-      </c>
-      <c r="F320" s="3">
-        <v>195</v>
-      </c>
-      <c r="H320" s="3">
-        <v>195</v>
-      </c>
-      <c r="J320" t="s">
-        <v>2</v>
-      </c>
-      <c r="M320" t="s">
-        <v>4</v>
-      </c>
-      <c r="N320" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="D321" s="9">
+        <v>44844</v>
+      </c>
+      <c r="F321" s="10">
+        <v>195</v>
+      </c>
+      <c r="H321" s="10">
+        <v>195</v>
+      </c>
+      <c r="J321" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M321" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N321" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="8">
         <v>80</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C322" s="9">
         <v>44476</v>
       </c>
-      <c r="D321" s="2">
-        <v>44844</v>
-      </c>
-      <c r="F321" s="3">
-        <v>195</v>
-      </c>
-      <c r="H321" s="3">
-        <v>195</v>
-      </c>
-      <c r="J321" t="s">
-        <v>2</v>
-      </c>
-      <c r="M321" t="s">
-        <v>4</v>
-      </c>
-      <c r="N321" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="D322" s="9">
+        <v>44875</v>
+      </c>
+      <c r="F322" s="10">
+        <v>195</v>
+      </c>
+      <c r="H322" s="10">
+        <v>195</v>
+      </c>
+      <c r="J322" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M322" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N322" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="8">
         <v>80</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C323" s="9">
         <v>44476</v>
       </c>
-      <c r="D322" s="2">
-        <v>44875</v>
-      </c>
-      <c r="F322" s="3">
-        <v>195</v>
-      </c>
-      <c r="H322" s="3">
-        <v>195</v>
-      </c>
-      <c r="J322" t="s">
-        <v>2</v>
-      </c>
-      <c r="M322" t="s">
-        <v>4</v>
-      </c>
-      <c r="N322" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="D323" s="9">
+        <v>44905</v>
+      </c>
+      <c r="F323" s="10">
+        <v>195</v>
+      </c>
+      <c r="H323" s="10">
+        <v>195</v>
+      </c>
+      <c r="J323" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M323" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N323" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="8">
         <v>80</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C324" s="9">
         <v>44476</v>
       </c>
-      <c r="D323" s="2">
-        <v>44905</v>
-      </c>
-      <c r="F323" s="3">
-        <v>195</v>
-      </c>
-      <c r="H323" s="3">
-        <v>195</v>
-      </c>
-      <c r="J323" t="s">
-        <v>2</v>
-      </c>
-      <c r="M323" t="s">
-        <v>4</v>
-      </c>
-      <c r="N323" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="D324" s="9">
+        <v>44936</v>
+      </c>
+      <c r="F324" s="10">
+        <v>195</v>
+      </c>
+      <c r="H324" s="10">
+        <v>195</v>
+      </c>
+      <c r="J324" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M324" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N324" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="8">
         <v>80</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C325" s="9">
         <v>44476</v>
       </c>
-      <c r="D324" s="2">
-        <v>44936</v>
-      </c>
-      <c r="F324" s="3">
-        <v>195</v>
-      </c>
-      <c r="H324" s="3">
-        <v>195</v>
-      </c>
-      <c r="J324" t="s">
-        <v>2</v>
-      </c>
-      <c r="M324" t="s">
-        <v>4</v>
-      </c>
-      <c r="N324" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="D325" s="9">
+        <v>44967</v>
+      </c>
+      <c r="F325" s="10">
+        <v>195</v>
+      </c>
+      <c r="H325" s="10">
+        <v>195</v>
+      </c>
+      <c r="J325" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M325" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N325" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="8">
         <v>80</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C326" s="9">
         <v>44476</v>
       </c>
-      <c r="D325" s="2">
-        <v>44967</v>
-      </c>
-      <c r="F325" s="3">
-        <v>195</v>
-      </c>
-      <c r="H325" s="3">
-        <v>195</v>
-      </c>
-      <c r="J325" t="s">
-        <v>2</v>
-      </c>
-      <c r="M325" t="s">
-        <v>4</v>
-      </c>
-      <c r="N325" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="D326" s="9">
+        <v>44995</v>
+      </c>
+      <c r="F326" s="10">
+        <v>195</v>
+      </c>
+      <c r="H326" s="10">
+        <v>195</v>
+      </c>
+      <c r="J326" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M326" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N326" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="8">
         <v>80</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C327" s="9">
         <v>44476</v>
       </c>
-      <c r="D326" s="2">
-        <v>44995</v>
-      </c>
-      <c r="F326" s="3">
-        <v>195</v>
-      </c>
-      <c r="H326" s="3">
-        <v>195</v>
-      </c>
-      <c r="J326" t="s">
-        <v>2</v>
-      </c>
-      <c r="M326" t="s">
-        <v>4</v>
-      </c>
-      <c r="N326" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="D327" s="9">
+        <v>45026</v>
+      </c>
+      <c r="F327" s="10">
+        <v>195</v>
+      </c>
+      <c r="H327" s="10">
+        <v>195</v>
+      </c>
+      <c r="J327" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M327" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N327" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="8">
         <v>80</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C328" s="9">
         <v>44476</v>
       </c>
-      <c r="D327" s="2">
-        <v>45026</v>
-      </c>
-      <c r="F327" s="3">
-        <v>195</v>
-      </c>
-      <c r="H327" s="3">
-        <v>195</v>
-      </c>
-      <c r="J327" t="s">
-        <v>2</v>
-      </c>
-      <c r="M327" t="s">
-        <v>4</v>
-      </c>
-      <c r="N327" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="D328" s="9">
+        <v>45056</v>
+      </c>
+      <c r="F328" s="10">
+        <v>195</v>
+      </c>
+      <c r="H328" s="10">
+        <v>195</v>
+      </c>
+      <c r="J328" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M328" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N328" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="8">
         <v>80</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C329" s="9">
         <v>44476</v>
       </c>
-      <c r="D328" s="2">
-        <v>45056</v>
-      </c>
-      <c r="F328" s="3">
-        <v>195</v>
-      </c>
-      <c r="H328" s="3">
-        <v>195</v>
-      </c>
-      <c r="J328" t="s">
-        <v>2</v>
-      </c>
-      <c r="M328" t="s">
-        <v>4</v>
-      </c>
-      <c r="N328" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="D329" s="9">
+        <v>45087</v>
+      </c>
+      <c r="F329" s="10">
+        <v>195</v>
+      </c>
+      <c r="H329" s="10">
+        <v>195</v>
+      </c>
+      <c r="J329" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M329" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N329" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="8">
         <v>80</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C330" s="9">
         <v>44476</v>
       </c>
-      <c r="D329" s="2">
-        <v>45087</v>
-      </c>
-      <c r="F329" s="3">
-        <v>195</v>
-      </c>
-      <c r="H329" s="3">
-        <v>195</v>
-      </c>
-      <c r="J329" t="s">
-        <v>2</v>
-      </c>
-      <c r="M329" t="s">
-        <v>4</v>
-      </c>
-      <c r="N329" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>80</v>
-      </c>
-      <c r="B330" t="s">
-        <v>23</v>
-      </c>
-      <c r="C330" s="2">
-        <v>44476</v>
-      </c>
-      <c r="D330" s="2">
+      <c r="D330" s="9">
         <v>45117</v>
       </c>
-      <c r="F330" s="3">
-        <v>195</v>
-      </c>
-      <c r="H330" s="3">
-        <v>195</v>
-      </c>
-      <c r="J330" t="s">
-        <v>2</v>
-      </c>
-      <c r="M330" t="s">
-        <v>4</v>
-      </c>
-      <c r="N330" t="s">
+      <c r="F330" s="10">
+        <v>195</v>
+      </c>
+      <c r="H330" s="10">
+        <v>195</v>
+      </c>
+      <c r="J330" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M330" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N330" s="8" t="s">
         <v>5</v>
       </c>
     </row>
